--- a/testcases/case30.xlsx
+++ b/testcases/case30.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="260">
   <si>
     <t>name</t>
   </si>
@@ -923,7 +923,7 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4399,18 +4399,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.53441295546559"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4424,39 +4424,42 @@
         <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4689,18 +4692,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.53441295546559"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -4711,64 +4714,67 @@
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
@@ -4778,65 +4784,68 @@
       <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="K2" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="Q2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="R2" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="S2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="T2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="V2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W2" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>16</v>
       </c>
@@ -4846,65 +4855,68 @@
       <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="K3" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="Q3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="R3" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="S3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="T3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="V3" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>36</v>
       </c>
@@ -4914,65 +4926,68 @@
       <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="K4" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="P4" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="Q4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="R4" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="S4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="T4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="U4" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="V4" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>41</v>
       </c>
@@ -4982,65 +4997,68 @@
       <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="K5" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="P5" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="Q5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="R5" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="S5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="T5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="V5" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="V5" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>37</v>
       </c>
@@ -5050,65 +5068,68 @@
       <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="K6" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="P6" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="Q6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="R6" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="S6" s="0" t="s">
         <v>13</v>
       </c>
       <c r="T6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="U6" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="V6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="V6" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W6" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>27</v>
       </c>
@@ -5118,61 +5139,64 @@
       <c r="C7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F7" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="J7" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="K7" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="P7" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="Q7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="R7" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="S7" s="0" t="s">
         <v>13</v>
       </c>
       <c r="T7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="U7" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="V7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="V7" s="0" t="s">
+      <c r="W7" s="0" t="s">
         <v>13</v>
       </c>
     </row>

--- a/testcases/case30.xlsx
+++ b/testcases/case30.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="260">
   <si>
     <t>name</t>
   </si>
@@ -4399,10 +4399,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4433,33 +4433,36 @@
         <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4694,7 +4697,7 @@
   </sheetPr>
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
